--- a/biology/Zoologie/Conus_antoniaensis/Conus_antoniaensis.xlsx
+++ b/biology/Zoologie/Conus_antoniaensis/Conus_antoniaensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus antoniaensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 11 et 30 mm.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique au large de Boa Vista, île du Cap-Vert[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique au large de Boa Vista, île du Cap-Vert. 
 </t>
         </is>
       </c>
@@ -576,13 +592,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus antoniaensis a été décrite pour la première fois en 2014 par les malacologistes Tiziano Cossignani (1951-)[2] et Ramiro Fiadeiro[3],[1].
-Synonymes
-Africonus antoniaensis T. Cossignani &amp; Fiadeiro, 2014 · appellation alternative (combinaison originale)
-Africonus padarosae T. Cossignani &amp; Fiadeiro, 2018 · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus antoniaensis dans les principales bases sont les suivants :
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus antoniaensis a été décrite pour la première fois en 2014 par les malacologistes Tiziano Cossignani (1951-) et Ramiro Fiadeiro,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_antoniaensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_antoniaensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Africonus antoniaensis T. Cossignani &amp; Fiadeiro, 2014 · appellation alternative (combinaison originale)
+Africonus padarosae T. Cossignani &amp; Fiadeiro, 2018 · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_antoniaensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_antoniaensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus antoniaensis dans les principales bases sont les suivants :
 CoL : XWWJ - GBIF : 7698761 - 
 </t>
         </is>
